--- a/MyntraShopping/src/test/java/com/qa/testdata/MyntraData.xlsx
+++ b/MyntraShopping/src/test/java/com/qa/testdata/MyntraData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranaya\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6398350E-DF1D-4FE6-909C-1EFDD7E17318}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC2155C-73D5-43B0-B319-C761466CC807}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{40595719-30D5-4453-8F0A-E355928489BB}"/>
+    <workbookView xWindow="4320" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{40595719-30D5-4453-8F0A-E355928489BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -437,7 +437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694ABD77-F89D-4B03-997B-DD3051AF1468}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -457,7 +457,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>9133816572</v>
+        <v>6303341928</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
@@ -526,7 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A417666-B2AF-49D2-918E-C9FA94ADFBC9}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -546,7 +546,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>6803212013</v>
+        <v>6833212013</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>6801212013</v>
+        <v>6831312013</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>6892214013</v>
+        <v>6833314013</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
